--- a/step events doc.xlsx
+++ b/step events doc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorn\Documents\GitHub\vue\socket.io.server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD3EB1AB-9354-445D-A7D1-E5A83D37BC5D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898DCEA7-27A1-4B99-B380-EB7E279E8865}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-34800" yWindow="-6990" windowWidth="29040" windowHeight="15840" xr2:uid="{57B0F03E-9E33-487F-9A53-4704DD2E95DB}"/>
   </bookViews>
@@ -593,7 +593,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D21" sqref="D21:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
